--- a/outputs/combined_flat_with_responses.xlsx
+++ b/outputs/combined_flat_with_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kusha\Projects\git_repos\xls_merger\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ACF6A-E6E0-44B6-8BB0-F9860C48E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353C05E-BB9C-43A7-ABE2-4BC024FD2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>FDIRs</t>
   </si>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -262,6 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +571,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +617,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -642,9 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,9 +673,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -719,9 +719,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -748,9 +746,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -767,9 +763,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
@@ -786,9 +780,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -805,7 +797,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -832,9 +824,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
@@ -880,6 +870,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>